--- a/Code/Results/Cases/Case_8_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.83598759559941</v>
+        <v>11.71360672379706</v>
       </c>
       <c r="C2">
-        <v>7.356704712385406</v>
+        <v>7.837587100152126</v>
       </c>
       <c r="D2">
-        <v>6.760524717281398</v>
+        <v>7.020661285951937</v>
       </c>
       <c r="E2">
-        <v>9.661409150836285</v>
+        <v>9.93032044671228</v>
       </c>
       <c r="F2">
-        <v>23.67062156561243</v>
+        <v>22.76414411643734</v>
       </c>
       <c r="G2">
-        <v>2.112291009712996</v>
+        <v>5.51446018977722</v>
       </c>
       <c r="H2">
-        <v>2.498196107392795</v>
+        <v>2.296537972706194</v>
       </c>
       <c r="I2">
-        <v>3.043172039439929</v>
+        <v>2.775708266138222</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.49484756234353</v>
+        <v>14.62437632666189</v>
       </c>
       <c r="L2">
-        <v>6.347466732618854</v>
+        <v>12.27911377819785</v>
       </c>
       <c r="M2">
-        <v>10.77925248961593</v>
+        <v>9.355403191931384</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.43882772382843</v>
       </c>
       <c r="O2">
-        <v>11.51742602803827</v>
+        <v>10.92041886530806</v>
       </c>
       <c r="P2">
-        <v>13.26049382152451</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>17.08640219978077</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.52263692486853</v>
+      </c>
+      <c r="R2">
+        <v>12.95456867981228</v>
+      </c>
+      <c r="S2">
+        <v>16.22234714300282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.06903009280525</v>
+        <v>11.00432780684897</v>
       </c>
       <c r="C3">
-        <v>6.909993572907232</v>
+        <v>7.316826849709929</v>
       </c>
       <c r="D3">
-        <v>6.462717397360461</v>
+        <v>6.728482943770341</v>
       </c>
       <c r="E3">
-        <v>9.322186195614615</v>
+        <v>9.611408922110543</v>
       </c>
       <c r="F3">
-        <v>23.33668370004251</v>
+        <v>22.43175652180058</v>
       </c>
       <c r="G3">
-        <v>2.115639869533083</v>
+        <v>5.959073788692325</v>
       </c>
       <c r="H3">
-        <v>2.693823188764089</v>
+        <v>2.475243880803577</v>
       </c>
       <c r="I3">
-        <v>3.178646584540765</v>
+        <v>2.887275010311216</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.5378187340511</v>
+        <v>14.67011948566606</v>
       </c>
       <c r="L3">
-        <v>6.247286165953165</v>
+        <v>12.40632247399322</v>
       </c>
       <c r="M3">
-        <v>10.14238263434249</v>
+        <v>9.322884979521767</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.349735370258683</v>
       </c>
       <c r="O3">
-        <v>11.01459270750744</v>
+        <v>10.3013541488551</v>
       </c>
       <c r="P3">
-        <v>13.39528225108125</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>17.02161542077728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.01321859312961</v>
+      </c>
+      <c r="R3">
+        <v>13.07168575570274</v>
+      </c>
+      <c r="S3">
+        <v>16.14805671890975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.56746351713531</v>
+        <v>10.54082305683291</v>
       </c>
       <c r="C4">
-        <v>6.624172630635799</v>
+        <v>6.983000932804484</v>
       </c>
       <c r="D4">
-        <v>6.274006061078865</v>
+        <v>6.544370662492353</v>
       </c>
       <c r="E4">
-        <v>9.107400618344272</v>
+        <v>9.410359073322619</v>
       </c>
       <c r="F4">
-        <v>23.13583476234017</v>
+        <v>22.22922176544415</v>
       </c>
       <c r="G4">
-        <v>2.117769390307926</v>
+        <v>6.24192191243846</v>
       </c>
       <c r="H4">
-        <v>2.818571879365839</v>
+        <v>2.589280829770302</v>
       </c>
       <c r="I4">
-        <v>3.26578199735243</v>
+        <v>2.959477932490585</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.56754978925792</v>
+        <v>14.69985085525168</v>
       </c>
       <c r="L4">
-        <v>6.184154070437505</v>
+        <v>12.48586480166134</v>
       </c>
       <c r="M4">
-        <v>9.729521972154728</v>
+        <v>9.319497698173567</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.293697962405273</v>
       </c>
       <c r="O4">
-        <v>10.69481813519205</v>
+        <v>9.900637994579776</v>
       </c>
       <c r="P4">
-        <v>13.47959457089233</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.98682530191774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.68886331218163</v>
+      </c>
+      <c r="R4">
+        <v>13.14507567569962</v>
+      </c>
+      <c r="S4">
+        <v>16.1051924347429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.35018557758845</v>
+        <v>10.33986208057313</v>
       </c>
       <c r="C5">
-        <v>6.513530445169027</v>
+        <v>6.852336828557481</v>
       </c>
       <c r="D5">
-        <v>6.197338833951147</v>
+        <v>6.469856249278838</v>
       </c>
       <c r="E5">
-        <v>9.018747972336552</v>
+        <v>9.32763502003014</v>
       </c>
       <c r="F5">
-        <v>23.04915144844941</v>
+        <v>22.14106063457391</v>
       </c>
       <c r="G5">
-        <v>2.118661521632255</v>
+        <v>6.360468706263135</v>
       </c>
       <c r="H5">
-        <v>2.870798383940104</v>
+        <v>2.637035904802272</v>
       </c>
       <c r="I5">
-        <v>3.305031397722268</v>
+        <v>2.99314478407255</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.57603154991509</v>
+        <v>14.70791388663127</v>
       </c>
       <c r="L5">
-        <v>6.157776357918872</v>
+        <v>12.5144013154439</v>
       </c>
       <c r="M5">
-        <v>9.555600384637545</v>
+        <v>9.319864112472628</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.270296823382017</v>
       </c>
       <c r="O5">
-        <v>10.56212552355214</v>
+        <v>9.732011414344415</v>
       </c>
       <c r="P5">
-        <v>13.51388523406694</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.96954018497919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.55416779508223</v>
+      </c>
+      <c r="R5">
+        <v>13.17495670363161</v>
+      </c>
+      <c r="S5">
+        <v>16.08394505293032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.30733197413298</v>
+        <v>10.29990263228471</v>
       </c>
       <c r="C6">
-        <v>6.505647177278153</v>
+        <v>6.84128679920112</v>
       </c>
       <c r="D6">
-        <v>6.186509152582446</v>
+        <v>6.459374606848856</v>
       </c>
       <c r="E6">
-        <v>9.004460924391744</v>
+        <v>9.314364431407709</v>
       </c>
       <c r="F6">
-        <v>23.02755326091679</v>
+        <v>22.11902047572606</v>
       </c>
       <c r="G6">
-        <v>2.118817691716376</v>
+        <v>6.381252224891465</v>
       </c>
       <c r="H6">
-        <v>2.879800823518859</v>
+        <v>2.645262561096834</v>
       </c>
       <c r="I6">
-        <v>3.315128900026379</v>
+        <v>3.003063794960312</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.57204187552622</v>
+        <v>14.70383390244391</v>
       </c>
       <c r="L6">
-        <v>6.153064431243049</v>
+        <v>12.51398798479802</v>
       </c>
       <c r="M6">
-        <v>9.526109686310948</v>
+        <v>9.317191092386711</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.266100963575097</v>
       </c>
       <c r="O6">
-        <v>10.5402382659323</v>
+        <v>9.703443424421183</v>
       </c>
       <c r="P6">
-        <v>13.51903738337362</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.96143426333186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.53193663475709</v>
+      </c>
+      <c r="R6">
+        <v>13.17945363079839</v>
+      </c>
+      <c r="S6">
+        <v>16.07500398091709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.54774342097093</v>
+        <v>10.51281938081249</v>
       </c>
       <c r="C7">
-        <v>6.651161742411676</v>
+        <v>6.987029630838106</v>
       </c>
       <c r="D7">
-        <v>6.278305227998398</v>
+        <v>6.55987471448602</v>
       </c>
       <c r="E7">
-        <v>9.107634951041991</v>
+        <v>9.415260728042298</v>
       </c>
       <c r="F7">
-        <v>23.11491176723518</v>
+        <v>22.1691359114352</v>
       </c>
       <c r="G7">
-        <v>2.117799844022751</v>
+        <v>6.29555367383155</v>
       </c>
       <c r="H7">
-        <v>2.819965920367874</v>
+        <v>2.591812449817009</v>
       </c>
       <c r="I7">
-        <v>3.275613920750365</v>
+        <v>2.972454687709556</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.55280025054687</v>
+        <v>14.6677629409895</v>
       </c>
       <c r="L7">
-        <v>6.182969933252403</v>
+        <v>12.45649317834192</v>
       </c>
       <c r="M7">
-        <v>9.726439826082885</v>
+        <v>9.300760952100161</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.291667221925673</v>
       </c>
       <c r="O7">
-        <v>10.69384361197934</v>
+        <v>9.884739338189366</v>
       </c>
       <c r="P7">
-        <v>13.47855879976026</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.97212752448543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.68288526944692</v>
+      </c>
+      <c r="R7">
+        <v>13.14241673005873</v>
+      </c>
+      <c r="S7">
+        <v>16.06134052761539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.55732782345039</v>
+        <v>11.42736224943836</v>
       </c>
       <c r="C8">
-        <v>7.240037754661717</v>
+        <v>7.624882084832629</v>
       </c>
       <c r="D8">
-        <v>6.665781262100973</v>
+        <v>6.96320476693303</v>
       </c>
       <c r="E8">
-        <v>9.547676032093284</v>
+        <v>9.838142302897561</v>
       </c>
       <c r="F8">
-        <v>23.52906653782717</v>
+        <v>22.49780744844935</v>
       </c>
       <c r="G8">
-        <v>2.113453647421921</v>
+        <v>5.924065600382957</v>
       </c>
       <c r="H8">
-        <v>2.565561627730052</v>
+        <v>2.362009110257938</v>
       </c>
       <c r="I8">
-        <v>3.100935055775512</v>
+        <v>2.831691898216548</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.48939169758924</v>
+        <v>14.56391619466258</v>
       </c>
       <c r="L8">
-        <v>6.31221781086308</v>
+        <v>12.25790877105059</v>
       </c>
       <c r="M8">
-        <v>10.56327443977403</v>
+        <v>9.289799060692411</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.404492677875319</v>
       </c>
       <c r="O8">
-        <v>11.34741795096427</v>
+        <v>10.670151249519</v>
       </c>
       <c r="P8">
-        <v>13.30488987587253</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>17.04408997995064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.33479613382612</v>
+      </c>
+      <c r="R8">
+        <v>12.98854778276174</v>
+      </c>
+      <c r="S8">
+        <v>16.08313553127254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.32174112719677</v>
+        <v>13.05750214445372</v>
       </c>
       <c r="C9">
-        <v>8.257040567060484</v>
+        <v>8.801403049161159</v>
       </c>
       <c r="D9">
-        <v>7.367077975658705</v>
+        <v>7.66238968589858</v>
       </c>
       <c r="E9">
-        <v>10.35345662498207</v>
+        <v>10.60308819426862</v>
       </c>
       <c r="F9">
-        <v>24.40629082051197</v>
+        <v>23.32923793099271</v>
       </c>
       <c r="G9">
-        <v>2.105470523522233</v>
+        <v>4.955699256573526</v>
       </c>
       <c r="H9">
-        <v>2.101667039390989</v>
+        <v>1.939471782049354</v>
       </c>
       <c r="I9">
-        <v>2.774188066341583</v>
+        <v>2.561896936444291</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.41889273809139</v>
+        <v>14.46269790550989</v>
       </c>
       <c r="L9">
-        <v>6.55384436464255</v>
+        <v>11.95972400857018</v>
       </c>
       <c r="M9">
-        <v>12.03120685016516</v>
+        <v>9.453446863651353</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.619519185566975</v>
       </c>
       <c r="O9">
-        <v>12.53478227721859</v>
+        <v>12.09346768760178</v>
       </c>
       <c r="P9">
-        <v>12.97850119759558</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.2512294551667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.5329341483833</v>
+      </c>
+      <c r="R9">
+        <v>12.70650490649643</v>
+      </c>
+      <c r="S9">
+        <v>16.27882008525666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.4546983716199</v>
+        <v>14.06728144309881</v>
       </c>
       <c r="C10">
-        <v>8.930373578617134</v>
+        <v>9.46739113148711</v>
       </c>
       <c r="D10">
-        <v>7.7727641086187</v>
+        <v>8.124714120698984</v>
       </c>
       <c r="E10">
-        <v>10.73363545740566</v>
+        <v>10.98374676879669</v>
       </c>
       <c r="F10">
-        <v>24.91957937999286</v>
+        <v>23.59739505018075</v>
       </c>
       <c r="G10">
-        <v>2.100052902217648</v>
+        <v>5.44178039965699</v>
       </c>
       <c r="H10">
-        <v>1.815402870673071</v>
+        <v>1.688553964381333</v>
       </c>
       <c r="I10">
-        <v>2.562643986769651</v>
+        <v>2.582044501840823</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.3333065643041</v>
+        <v>14.25695825706736</v>
       </c>
       <c r="L10">
-        <v>6.654175953186427</v>
+        <v>11.64978859236125</v>
       </c>
       <c r="M10">
-        <v>12.98567331207741</v>
+        <v>9.530951041839181</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.698619215904783</v>
       </c>
       <c r="O10">
-        <v>13.23605883496141</v>
+        <v>12.96046912610139</v>
       </c>
       <c r="P10">
-        <v>12.7424983636552</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.35673545114924</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.21507242745144</v>
+      </c>
+      <c r="R10">
+        <v>12.50298610162976</v>
+      </c>
+      <c r="S10">
+        <v>16.21180363950756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.82866853900856</v>
+        <v>14.35539963244454</v>
       </c>
       <c r="C11">
-        <v>9.013788949465825</v>
+        <v>9.313729080422831</v>
       </c>
       <c r="D11">
-        <v>7.289446589833425</v>
+        <v>7.752357865908291</v>
       </c>
       <c r="E11">
-        <v>9.447305444901783</v>
+        <v>9.740481650980476</v>
       </c>
       <c r="F11">
-        <v>23.93969901268708</v>
+        <v>22.21480096069812</v>
       </c>
       <c r="G11">
-        <v>2.098562222257352</v>
+        <v>8.73128948225688</v>
       </c>
       <c r="H11">
-        <v>2.814584578416743</v>
+        <v>2.745625888492946</v>
       </c>
       <c r="I11">
-        <v>2.521651798715108</v>
+        <v>2.633799752978086</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.89166544179337</v>
+        <v>13.66688693105001</v>
       </c>
       <c r="L11">
-        <v>6.176810028805408</v>
+        <v>11.18215588514498</v>
       </c>
       <c r="M11">
-        <v>13.25493455203426</v>
+        <v>9.141315972641404</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.215555096897669</v>
       </c>
       <c r="O11">
-        <v>12.60837638032363</v>
+        <v>13.09532815173148</v>
       </c>
       <c r="P11">
-        <v>12.62586810635394</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.81888870713441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.53410550297776</v>
+      </c>
+      <c r="R11">
+        <v>12.43426403926077</v>
+      </c>
+      <c r="S11">
+        <v>15.37752783144322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.93468722687137</v>
+        <v>14.43808061246913</v>
       </c>
       <c r="C12">
-        <v>8.912101287590508</v>
+        <v>9.07736885216671</v>
       </c>
       <c r="D12">
-        <v>6.787203792982842</v>
+        <v>7.296191429886295</v>
       </c>
       <c r="E12">
-        <v>8.371971301825418</v>
+        <v>8.677253468796437</v>
       </c>
       <c r="F12">
-        <v>23.02091616948486</v>
+        <v>21.1460723631874</v>
       </c>
       <c r="G12">
-        <v>2.098330863345534</v>
+        <v>10.48981201738669</v>
       </c>
       <c r="H12">
-        <v>4.192509245752387</v>
+        <v>4.147818316596144</v>
       </c>
       <c r="I12">
-        <v>2.510670109663251</v>
+        <v>2.638462899757966</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.55902309368995</v>
+        <v>13.30272761739546</v>
       </c>
       <c r="L12">
-        <v>5.861650708741982</v>
+        <v>10.92410812390977</v>
       </c>
       <c r="M12">
-        <v>13.28878207802301</v>
+        <v>8.859601597527011</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.902921889528807</v>
       </c>
       <c r="O12">
-        <v>11.92384906419173</v>
+        <v>13.0696765281548</v>
       </c>
       <c r="P12">
-        <v>12.59013382025768</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>16.35715899858445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.82386159461158</v>
+      </c>
+      <c r="R12">
+        <v>12.43973895452554</v>
+      </c>
+      <c r="S12">
+        <v>14.81028720526905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.82531469735603</v>
+        <v>14.36874909586166</v>
       </c>
       <c r="C13">
-        <v>8.692331900589814</v>
+        <v>8.832324565698094</v>
       </c>
       <c r="D13">
-        <v>6.235853257499683</v>
+        <v>6.722445853774725</v>
       </c>
       <c r="E13">
-        <v>7.423395474469631</v>
+        <v>7.712953111272928</v>
       </c>
       <c r="F13">
-        <v>22.05775209919027</v>
+        <v>20.2918958222023</v>
       </c>
       <c r="G13">
-        <v>2.099081086181297</v>
+        <v>10.12942191973782</v>
       </c>
       <c r="H13">
-        <v>5.615044516281963</v>
+        <v>5.578640372703927</v>
       </c>
       <c r="I13">
-        <v>2.537934968755569</v>
+        <v>2.616043488861824</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.26796644748773</v>
+        <v>13.09340267357703</v>
       </c>
       <c r="L13">
-        <v>5.66508201572812</v>
+        <v>10.79472881502156</v>
       </c>
       <c r="M13">
-        <v>13.14403029434626</v>
+        <v>8.659648015811431</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.715632645358978</v>
       </c>
       <c r="O13">
-        <v>11.13958224663578</v>
+        <v>12.94306216681268</v>
       </c>
       <c r="P13">
-        <v>12.61026210698638</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.90289979231856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.04240660096654</v>
+      </c>
+      <c r="R13">
+        <v>12.48205680686597</v>
+      </c>
+      <c r="S13">
+        <v>14.44334432509115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.64606588143148</v>
+        <v>14.24613976480236</v>
       </c>
       <c r="C14">
-        <v>8.488787907020315</v>
+        <v>8.657685387029314</v>
       </c>
       <c r="D14">
-        <v>5.825246936447689</v>
+        <v>6.267666845471305</v>
       </c>
       <c r="E14">
-        <v>6.867914035618855</v>
+        <v>7.138364670619255</v>
       </c>
       <c r="F14">
-        <v>21.35938171673686</v>
+        <v>19.77519394422246</v>
       </c>
       <c r="G14">
-        <v>2.100050790372879</v>
+        <v>8.960495010045191</v>
       </c>
       <c r="H14">
-        <v>6.623636065395385</v>
+        <v>6.58932507403996</v>
       </c>
       <c r="I14">
-        <v>2.577464883334624</v>
+        <v>2.589800209281929</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.08161314208325</v>
+        <v>13.00683963663703</v>
       </c>
       <c r="L14">
-        <v>5.604205867349013</v>
+        <v>10.75141421550492</v>
       </c>
       <c r="M14">
-        <v>12.95994342499152</v>
+        <v>8.552202345813626</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.663286784232406</v>
       </c>
       <c r="O14">
-        <v>10.53872889279322</v>
+        <v>12.80592530628582</v>
       </c>
       <c r="P14">
-        <v>12.64999890165749</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15.58626485608881</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.45537460023085</v>
+      </c>
+      <c r="R14">
+        <v>12.52399327853609</v>
+      </c>
+      <c r="S14">
+        <v>14.2646296776451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.55037398170522</v>
+        <v>14.17682841827949</v>
       </c>
       <c r="C15">
-        <v>8.421613935606453</v>
+        <v>8.617471274391871</v>
       </c>
       <c r="D15">
-        <v>5.715829540639114</v>
+        <v>6.13581278921629</v>
       </c>
       <c r="E15">
-        <v>6.749532464840824</v>
+        <v>7.014580544783754</v>
       </c>
       <c r="F15">
-        <v>21.17552953391694</v>
+        <v>19.67915569147534</v>
       </c>
       <c r="G15">
-        <v>2.100514344937953</v>
+        <v>8.30232752445688</v>
       </c>
       <c r="H15">
-        <v>6.858757242773285</v>
+        <v>6.823948486304386</v>
       </c>
       <c r="I15">
-        <v>2.600285337590471</v>
+        <v>2.579771999430841</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.04090046254818</v>
+        <v>13.00825141757067</v>
       </c>
       <c r="L15">
-        <v>5.598894899432974</v>
+        <v>10.75902400707343</v>
       </c>
       <c r="M15">
-        <v>12.87587530237338</v>
+        <v>8.536927380415538</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.661153772357235</v>
       </c>
       <c r="O15">
-        <v>10.37089237803135</v>
+        <v>12.74817456210215</v>
       </c>
       <c r="P15">
-        <v>12.66999623318699</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>15.50736677043376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.29588475232697</v>
+      </c>
+      <c r="R15">
+        <v>12.53892166820643</v>
+      </c>
+      <c r="S15">
+        <v>14.25116098234964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.09479446057512</v>
+        <v>13.82814263795097</v>
       </c>
       <c r="C16">
-        <v>8.186714056605027</v>
+        <v>8.545791192469746</v>
       </c>
       <c r="D16">
-        <v>5.629872344189491</v>
+        <v>5.953868353929848</v>
       </c>
       <c r="E16">
-        <v>6.74589089568313</v>
+        <v>7.008316456468429</v>
       </c>
       <c r="F16">
-        <v>21.12401305635236</v>
+        <v>19.98889970385542</v>
       </c>
       <c r="G16">
-        <v>2.10268025600205</v>
+        <v>5.563383003059782</v>
       </c>
       <c r="H16">
-        <v>6.662973746086552</v>
+        <v>6.618418956070959</v>
       </c>
       <c r="I16">
-        <v>2.690285188856741</v>
+        <v>2.521333876549944</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.12908222139476</v>
+        <v>13.24343849063895</v>
       </c>
       <c r="L16">
-        <v>5.588768509007488</v>
+        <v>10.95328703843903</v>
       </c>
       <c r="M16">
-        <v>12.5041858713904</v>
+        <v>8.656036065656506</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.662681865582981</v>
       </c>
       <c r="O16">
-        <v>10.19409589202988</v>
+        <v>12.50135090766985</v>
       </c>
       <c r="P16">
-        <v>12.75895206877608</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>15.54270096847821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.16039473269842</v>
+      </c>
+      <c r="R16">
+        <v>12.58332094141335</v>
+      </c>
+      <c r="S16">
+        <v>14.55040192847678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.8367268128024</v>
+        <v>13.61113163645508</v>
       </c>
       <c r="C17">
-        <v>8.117898307213872</v>
+        <v>8.561688578444789</v>
       </c>
       <c r="D17">
-        <v>5.788817691883425</v>
+        <v>6.074095801615143</v>
       </c>
       <c r="E17">
-        <v>7.016879776800096</v>
+        <v>7.280826199148051</v>
       </c>
       <c r="F17">
-        <v>21.45862282379658</v>
+        <v>20.46403817477656</v>
       </c>
       <c r="G17">
-        <v>2.103833917898176</v>
+        <v>4.814468992471769</v>
       </c>
       <c r="H17">
-        <v>5.947181224817662</v>
+        <v>5.891975578002697</v>
       </c>
       <c r="I17">
-        <v>2.739283719799908</v>
+        <v>2.548437610692066</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.29444383343546</v>
+        <v>13.4561479149922</v>
       </c>
       <c r="L17">
-        <v>5.601023132150951</v>
+        <v>11.1258835541044</v>
       </c>
       <c r="M17">
-        <v>12.31556921477051</v>
+        <v>8.785976299911301</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.679677670629507</v>
       </c>
       <c r="O17">
-        <v>10.38784890679557</v>
+        <v>12.36802472537094</v>
       </c>
       <c r="P17">
-        <v>12.80693075592485</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.73829719310593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.37327009265517</v>
+      </c>
+      <c r="R17">
+        <v>12.60623788881985</v>
+      </c>
+      <c r="S17">
+        <v>14.84637640469672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.73836071226507</v>
+        <v>13.51520143427592</v>
       </c>
       <c r="C18">
-        <v>8.168949443835849</v>
+        <v>8.67559775902701</v>
       </c>
       <c r="D18">
-        <v>6.177207022129736</v>
+        <v>6.447668443581334</v>
       </c>
       <c r="E18">
-        <v>7.673410647353167</v>
+        <v>7.931703994829697</v>
       </c>
       <c r="F18">
-        <v>22.17791380423096</v>
+        <v>21.22478416773651</v>
       </c>
       <c r="G18">
-        <v>2.104183500215704</v>
+        <v>4.614442622685683</v>
       </c>
       <c r="H18">
-        <v>4.73277747456889</v>
+        <v>4.661463371026529</v>
       </c>
       <c r="I18">
-        <v>2.746320963156448</v>
+        <v>2.548926430579499</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.55725276007182</v>
+        <v>13.71670950573486</v>
       </c>
       <c r="L18">
-        <v>5.705094513167537</v>
+        <v>11.32730450116265</v>
       </c>
       <c r="M18">
-        <v>12.26949122595826</v>
+        <v>8.973883355803327</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.782918719141498</v>
       </c>
       <c r="O18">
-        <v>10.92472049315398</v>
+        <v>12.3443567959872</v>
       </c>
       <c r="P18">
-        <v>12.83012703652474</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>16.10358123426246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.9211620969028</v>
+      </c>
+      <c r="R18">
+        <v>12.61155575820849</v>
+      </c>
+      <c r="S18">
+        <v>15.23871014108713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.75293719315501</v>
+        <v>13.50773837800416</v>
       </c>
       <c r="C19">
-        <v>8.35530356737695</v>
+        <v>8.918846732057888</v>
       </c>
       <c r="D19">
-        <v>6.729399244426087</v>
+        <v>6.997877277228564</v>
       </c>
       <c r="E19">
-        <v>8.718457788693714</v>
+        <v>8.964479685461592</v>
       </c>
       <c r="F19">
-        <v>23.12538084641891</v>
+        <v>22.1595959230483</v>
       </c>
       <c r="G19">
-        <v>2.103831671265097</v>
+        <v>4.517696932023085</v>
       </c>
       <c r="H19">
-        <v>3.316862208814122</v>
+        <v>3.218453670876215</v>
       </c>
       <c r="I19">
-        <v>2.738003785412127</v>
+        <v>2.54366366872951</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.86011855587758</v>
+        <v>13.99012473383101</v>
       </c>
       <c r="L19">
-        <v>5.971546156777412</v>
+        <v>11.53096769123279</v>
       </c>
       <c r="M19">
-        <v>12.34174885309002</v>
+        <v>9.188729935058348</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.043279608456474</v>
       </c>
       <c r="O19">
-        <v>11.69461738631407</v>
+        <v>12.4201740198656</v>
       </c>
       <c r="P19">
-        <v>12.83919502908767</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.55668642477712</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.69803415196247</v>
+      </c>
+      <c r="R19">
+        <v>12.60698977719556</v>
+      </c>
+      <c r="S19">
+        <v>15.67957790886995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.12584649944695</v>
+        <v>13.79548390473678</v>
       </c>
       <c r="C20">
-        <v>8.825245986551321</v>
+        <v>9.430653332004821</v>
       </c>
       <c r="D20">
-        <v>7.67832988629093</v>
+        <v>7.981445498498169</v>
       </c>
       <c r="E20">
-        <v>10.63146659547457</v>
+        <v>10.86674858990115</v>
       </c>
       <c r="F20">
-        <v>24.72103907892099</v>
+        <v>23.59020006195871</v>
       </c>
       <c r="G20">
-        <v>2.101506291574279</v>
+        <v>4.596270976303297</v>
       </c>
       <c r="H20">
-        <v>1.890399655922947</v>
+        <v>1.750362292335064</v>
       </c>
       <c r="I20">
-        <v>2.649601156055013</v>
+        <v>2.557690627107856</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.30728876613654</v>
+        <v>14.32394421609645</v>
       </c>
       <c r="L20">
-        <v>6.622950931263372</v>
+        <v>11.73863051716579</v>
       </c>
       <c r="M20">
-        <v>12.73952032683286</v>
+        <v>9.518623439814226</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.675727854517318</v>
       </c>
       <c r="O20">
-        <v>13.05271500947278</v>
+        <v>12.77398078846358</v>
       </c>
       <c r="P20">
-        <v>12.80090909490524</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.28126344554203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.05159494897455</v>
+      </c>
+      <c r="R20">
+        <v>12.55609949459287</v>
+      </c>
+      <c r="S20">
+        <v>16.27944636457647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.97712928777625</v>
+        <v>14.4240017896588</v>
       </c>
       <c r="C21">
-        <v>9.350183469954578</v>
+        <v>9.628304325280251</v>
       </c>
       <c r="D21">
-        <v>8.095786420078364</v>
+        <v>8.620066935446888</v>
       </c>
       <c r="E21">
-        <v>11.18290648248236</v>
+        <v>11.4976280707234</v>
       </c>
       <c r="F21">
-        <v>25.34522928293701</v>
+        <v>23.35724154299456</v>
       </c>
       <c r="G21">
-        <v>2.097267321568555</v>
+        <v>10.22098082311476</v>
       </c>
       <c r="H21">
-        <v>1.6274159793376</v>
+        <v>1.589446939003426</v>
       </c>
       <c r="I21">
-        <v>2.536065061182395</v>
+        <v>2.67376956834776</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.32649942678329</v>
+        <v>13.93547891800829</v>
       </c>
       <c r="L21">
-        <v>6.803777339658014</v>
+        <v>11.35610914443318</v>
       </c>
       <c r="M21">
-        <v>13.46426133713903</v>
+        <v>9.389879008051352</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.825986120508733</v>
       </c>
       <c r="O21">
-        <v>13.73833318062284</v>
+        <v>13.2447710706492</v>
       </c>
       <c r="P21">
-        <v>12.62636817281733</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.48225409097333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.64648608370885</v>
+      </c>
+      <c r="R21">
+        <v>12.40093837921568</v>
+      </c>
+      <c r="S21">
+        <v>15.83384575957228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.5171297745926</v>
+        <v>14.81843712053516</v>
       </c>
       <c r="C22">
-        <v>9.642065507279378</v>
+        <v>9.692999588050013</v>
       </c>
       <c r="D22">
-        <v>8.316267619897321</v>
+        <v>8.995236166476257</v>
       </c>
       <c r="E22">
-        <v>11.44376772639177</v>
+        <v>11.81928391286474</v>
       </c>
       <c r="F22">
-        <v>25.70716110111947</v>
+        <v>23.11547951744115</v>
       </c>
       <c r="G22">
-        <v>2.094589629556622</v>
+        <v>15.0117541683877</v>
       </c>
       <c r="H22">
-        <v>1.645033063469898</v>
+        <v>1.712704707423986</v>
       </c>
       <c r="I22">
-        <v>2.634810564975063</v>
+        <v>2.741114680849585</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.33882128049023</v>
+        <v>13.66030753378257</v>
       </c>
       <c r="L22">
-        <v>6.886106441112361</v>
+        <v>11.10821539322036</v>
       </c>
       <c r="M22">
-        <v>13.91058987566246</v>
+        <v>9.28504999904899</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.88972437236184</v>
       </c>
       <c r="O22">
-        <v>14.11698993530349</v>
+        <v>13.52047189104203</v>
       </c>
       <c r="P22">
-        <v>12.51317298271629</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.6026458933663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>13.9614032218359</v>
+      </c>
+      <c r="R22">
+        <v>12.31017901325189</v>
+      </c>
+      <c r="S22">
+        <v>15.49551299147946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.24569264515049</v>
+        <v>14.64106030125231</v>
       </c>
       <c r="C23">
-        <v>9.462530592178043</v>
+        <v>9.677991086035856</v>
       </c>
       <c r="D23">
-        <v>8.1942925964767</v>
+        <v>8.766204441812462</v>
       </c>
       <c r="E23">
-        <v>11.30376848152691</v>
+        <v>11.6351272244745</v>
       </c>
       <c r="F23">
-        <v>25.53469258677807</v>
+        <v>23.35606816623484</v>
       </c>
       <c r="G23">
-        <v>2.095996805342763</v>
+        <v>11.64662246994782</v>
       </c>
       <c r="H23">
-        <v>1.566077192320759</v>
+        <v>1.649522479654981</v>
       </c>
       <c r="I23">
-        <v>2.576804494391934</v>
+        <v>2.700326408357107</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.3489984044407</v>
+        <v>13.86345443042273</v>
       </c>
       <c r="L23">
-        <v>6.843124661377709</v>
+        <v>11.2750904707059</v>
       </c>
       <c r="M23">
-        <v>13.67483405667084</v>
+        <v>9.391379186784343</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.858063643762764</v>
       </c>
       <c r="O23">
-        <v>13.91535414646039</v>
+        <v>13.40065779135366</v>
       </c>
       <c r="P23">
-        <v>12.57452291187808</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.55400711839051</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.80426084622162</v>
+      </c>
+      <c r="R23">
+        <v>12.35675312338101</v>
+      </c>
+      <c r="S23">
+        <v>15.76056661693054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.14361234574474</v>
+        <v>13.8121402587591</v>
       </c>
       <c r="C24">
-        <v>8.799334382672154</v>
+        <v>9.411677129180154</v>
       </c>
       <c r="D24">
-        <v>7.72595034499177</v>
+        <v>8.02762964655758</v>
       </c>
       <c r="E24">
-        <v>10.76075219582855</v>
+        <v>10.99446610893129</v>
       </c>
       <c r="F24">
-        <v>24.85316913486717</v>
+        <v>23.72609658121334</v>
       </c>
       <c r="G24">
-        <v>2.101462070732165</v>
+        <v>4.559775504588361</v>
       </c>
       <c r="H24">
-        <v>1.869469216762378</v>
+        <v>1.728827139511194</v>
       </c>
       <c r="I24">
-        <v>2.629235698115692</v>
+        <v>2.546839257310206</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.36860612379844</v>
+        <v>14.38308157177756</v>
       </c>
       <c r="L24">
-        <v>6.675788734794017</v>
+        <v>11.78295239491239</v>
       </c>
       <c r="M24">
-        <v>12.74176396908802</v>
+        <v>9.564423716374304</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.727928412553628</v>
       </c>
       <c r="O24">
-        <v>13.12739344845083</v>
+        <v>12.77812723233402</v>
       </c>
       <c r="P24">
-        <v>12.80739294483011</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.35524642131061</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.1274956636848</v>
+      </c>
+      <c r="R24">
+        <v>12.55967626828558</v>
+      </c>
+      <c r="S24">
+        <v>16.35577160578956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.84482317639795</v>
+        <v>12.62601243344586</v>
       </c>
       <c r="C25">
-        <v>8.035166866806238</v>
+        <v>8.567715541072229</v>
       </c>
       <c r="D25">
-        <v>7.191556563872531</v>
+        <v>7.472284818865284</v>
       </c>
       <c r="E25">
-        <v>10.14413312137206</v>
+        <v>10.39779055862653</v>
       </c>
       <c r="F25">
-        <v>24.13221622640165</v>
+        <v>23.12154114051989</v>
       </c>
       <c r="G25">
-        <v>2.107599856435819</v>
+        <v>5.052162119524427</v>
       </c>
       <c r="H25">
-        <v>2.224483284086409</v>
+        <v>2.049624075829119</v>
       </c>
       <c r="I25">
-        <v>2.876564982042893</v>
+        <v>2.651283345474248</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.40837828640793</v>
+        <v>14.48675636356668</v>
       </c>
       <c r="L25">
-        <v>6.488593273599818</v>
+        <v>12.03776583531576</v>
       </c>
       <c r="M25">
-        <v>11.65170952737456</v>
+        <v>9.39411005078555</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.562449623201153</v>
       </c>
       <c r="O25">
-        <v>12.22545208276681</v>
+        <v>11.74120975438447</v>
       </c>
       <c r="P25">
-        <v>13.0635493443551</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>17.16530225428255</v>
+        <v>12.22741996691032</v>
+      </c>
+      <c r="R25">
+        <v>12.78175769288278</v>
+      </c>
+      <c r="S25">
+        <v>16.23725704311957</v>
       </c>
     </row>
   </sheetData>
